--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl5-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl5-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.318968333333333</v>
+        <v>0.021814</v>
       </c>
       <c r="H2">
-        <v>3.956905</v>
+        <v>0.065442</v>
       </c>
       <c r="I2">
-        <v>0.5693148475898785</v>
+        <v>0.1008129179549036</v>
       </c>
       <c r="J2">
-        <v>0.5693148475898785</v>
+        <v>0.1008129179549036</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.059282</v>
+        <v>0.001937666666666667</v>
       </c>
       <c r="N2">
-        <v>6.177846</v>
+        <v>0.005813</v>
       </c>
       <c r="O2">
-        <v>0.9506927780787987</v>
+        <v>0.0230007399171451</v>
       </c>
       <c r="P2">
-        <v>0.9506927780787987</v>
+        <v>0.02300073991714511</v>
       </c>
       <c r="Q2">
-        <v>2.716127747403333</v>
+        <v>4.226826066666667E-05</v>
       </c>
       <c r="R2">
-        <v>24.44514972663</v>
+        <v>0.000380414346</v>
       </c>
       <c r="S2">
-        <v>0.5412435140567294</v>
+        <v>0.002318771706169226</v>
       </c>
       <c r="T2">
-        <v>0.5412435140567294</v>
+        <v>0.002318771706169226</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.318968333333333</v>
+        <v>0.021814</v>
       </c>
       <c r="H3">
-        <v>3.956905</v>
+        <v>0.065442</v>
       </c>
       <c r="I3">
-        <v>0.5693148475898785</v>
+        <v>0.1008129179549036</v>
       </c>
       <c r="J3">
-        <v>0.5693148475898785</v>
+        <v>0.1008129179549036</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,33 +614,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.08230599999999999</v>
+        <v>0.082306</v>
       </c>
       <c r="N3">
         <v>0.246918</v>
       </c>
       <c r="O3">
-        <v>0.03799757381094653</v>
+        <v>0.9769992600828549</v>
       </c>
       <c r="P3">
-        <v>0.03799757381094653</v>
+        <v>0.976999260082855</v>
       </c>
       <c r="Q3">
-        <v>0.1085590076433333</v>
+        <v>0.001795423084</v>
       </c>
       <c r="R3">
-        <v>0.9770310687899999</v>
+        <v>0.016158807756</v>
       </c>
       <c r="S3">
-        <v>0.02163258294296418</v>
+        <v>0.09849414624873438</v>
       </c>
       <c r="T3">
-        <v>0.02163258294296418</v>
+        <v>0.0984941462487344</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -649,25 +649,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.318968333333333</v>
+        <v>0.194567</v>
       </c>
       <c r="H4">
-        <v>3.956905</v>
+        <v>0.583701</v>
       </c>
       <c r="I4">
-        <v>0.5693148475898785</v>
+        <v>0.8991870820450963</v>
       </c>
       <c r="J4">
-        <v>0.5693148475898785</v>
+        <v>0.8991870820450963</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02449766666666666</v>
+        <v>0.001937666666666667</v>
       </c>
       <c r="N4">
-        <v>0.07349299999999999</v>
+        <v>0.005813</v>
       </c>
       <c r="O4">
-        <v>0.0113096481102548</v>
+        <v>0.0230007399171451</v>
       </c>
       <c r="P4">
-        <v>0.0113096481102548</v>
+        <v>0.02300073991714511</v>
       </c>
       <c r="Q4">
-        <v>0.03231164657388889</v>
+        <v>0.0003770059903333333</v>
       </c>
       <c r="R4">
-        <v>0.290804819165</v>
+        <v>0.003393053913</v>
       </c>
       <c r="S4">
-        <v>0.006438750590184866</v>
+        <v>0.02068196821097587</v>
       </c>
       <c r="T4">
-        <v>0.006438750590184866</v>
+        <v>0.02068196821097588</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,25 +711,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.9977960000000001</v>
+        <v>0.194567</v>
       </c>
       <c r="H5">
-        <v>2.993388</v>
+        <v>0.583701</v>
       </c>
       <c r="I5">
-        <v>0.4306851524101215</v>
+        <v>0.8991870820450963</v>
       </c>
       <c r="J5">
-        <v>0.4306851524101215</v>
+        <v>0.8991870820450963</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,152 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.059282</v>
+        <v>0.082306</v>
       </c>
       <c r="N5">
-        <v>6.177846</v>
+        <v>0.246918</v>
       </c>
       <c r="O5">
-        <v>0.9506927780787987</v>
+        <v>0.9769992600828549</v>
       </c>
       <c r="P5">
-        <v>0.9506927780787987</v>
+        <v>0.976999260082855</v>
       </c>
       <c r="Q5">
-        <v>2.054743342472</v>
+        <v>0.016014031502</v>
       </c>
       <c r="R5">
-        <v>18.492690082248</v>
+        <v>0.144126283518</v>
       </c>
       <c r="S5">
-        <v>0.4094492640220692</v>
+        <v>0.8785051138341204</v>
       </c>
       <c r="T5">
-        <v>0.4094492640220692</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.9977960000000001</v>
-      </c>
-      <c r="H6">
-        <v>2.993388</v>
-      </c>
-      <c r="I6">
-        <v>0.4306851524101215</v>
-      </c>
-      <c r="J6">
-        <v>0.4306851524101215</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.08230599999999999</v>
-      </c>
-      <c r="N6">
-        <v>0.246918</v>
-      </c>
-      <c r="O6">
-        <v>0.03799757381094653</v>
-      </c>
-      <c r="P6">
-        <v>0.03799757381094653</v>
-      </c>
-      <c r="Q6">
-        <v>0.08212459757600001</v>
-      </c>
-      <c r="R6">
-        <v>0.739121378184</v>
-      </c>
-      <c r="S6">
-        <v>0.01636499086798235</v>
-      </c>
-      <c r="T6">
-        <v>0.01636499086798235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.9977960000000001</v>
-      </c>
-      <c r="H7">
-        <v>2.993388</v>
-      </c>
-      <c r="I7">
-        <v>0.4306851524101215</v>
-      </c>
-      <c r="J7">
-        <v>0.4306851524101215</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.02449766666666666</v>
-      </c>
-      <c r="N7">
-        <v>0.07349299999999999</v>
-      </c>
-      <c r="O7">
-        <v>0.0113096481102548</v>
-      </c>
-      <c r="P7">
-        <v>0.0113096481102548</v>
-      </c>
-      <c r="Q7">
-        <v>0.02444367380933334</v>
-      </c>
-      <c r="R7">
-        <v>0.219993064284</v>
-      </c>
-      <c r="S7">
-        <v>0.004870897520069929</v>
-      </c>
-      <c r="T7">
-        <v>0.004870897520069929</v>
+        <v>0.8785051138341206</v>
       </c>
     </row>
   </sheetData>
